--- a/docs/RD_資産管理システム_要件定義書_v1.0.xlsx
+++ b/docs/RD_資産管理システム_要件定義書_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SH/Documents/portfolio/asset-management-app/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6CFEE0A0-4F84-504C-A1E0-6E798780F889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C5AD90-30DF-964B-AC5A-678070405BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="28200" tabRatio="888" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="28200" tabRatio="888" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="241">
   <si>
     <t>作成者</t>
   </si>
@@ -2438,13 +2438,7 @@
       <t xml:space="preserve">ニンイ </t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t xml:space="preserve">クウランカ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ジュウキニ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">タイオウ </t>
+      <t xml:space="preserve">クウランカ ジュウキニ タイオウ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2879,6 +2873,45 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t xml:space="preserve">ドウサ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・資産コードは重複不可</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">シサン </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジュウフク </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・過去日付の入力を不可とし、貸出日の7日後を返却期限の初期値とする。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・帳簿数との不一致がある場合、理由入力を必須とする。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・資産コードの重複および購入日の未来日付入力を不可とする。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・パスワードは英数字8文字以上を必須とする。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・返却日の過去日付入力を不可とする。</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ヘンキャクビ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カコ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3518,153 +3551,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3675,6 +3561,153 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4063,18 +4096,18 @@
     </row>
     <row r="6" spans="3:16" ht="69.75" customHeight="1">
       <c r="C6" s="12"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -4093,51 +4126,51 @@
     </row>
     <row r="8" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="10" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="83" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80">
+      <c r="G11" s="84"/>
+      <c r="H11" s="85">
         <v>46055</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="M16" s="18"/>
@@ -4202,23 +4235,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4228,23 +4261,23 @@
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="123">
+      <c r="O1" s="128">
         <v>46001</v>
       </c>
-      <c r="P1" s="123"/>
+      <c r="P1" s="128"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4252,8 +4285,8 @@
       <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" ht="16.75" customHeight="1">
       <c r="A3" s="47"/>
@@ -4864,23 +4897,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4890,23 +4923,23 @@
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="123">
+      <c r="O1" s="128">
         <v>46001</v>
       </c>
-      <c r="P1" s="123"/>
+      <c r="P1" s="128"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4914,8 +4947,8 @@
       <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" ht="16.75" customHeight="1">
       <c r="A3" s="47"/>
@@ -5506,56 +5539,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
       <c r="P1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="86"/>
+      <c r="R1" s="97"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
       <c r="P2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="87">
+      <c r="Q2" s="98">
         <v>46055</v>
       </c>
-      <c r="R2" s="86"/>
+      <c r="R2" s="97"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="35"/>
@@ -5581,433 +5614,433 @@
       <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="99"/>
+      <c r="F4" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88" t="s">
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="92">
         <v>46055</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="38">
         <v>2</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="38">
         <v>3</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="38">
         <v>4</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="38">
         <v>5</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="38">
         <v>6</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="38">
         <v>7</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="38">
         <v>8</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="38">
         <v>9</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="38">
         <v>10</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="38">
         <v>11</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="38">
         <v>12</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="38">
         <v>13</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="38">
         <v>14</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="38">
         <v>15</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="38">
         <v>16</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="38">
         <v>17</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="38">
         <v>18</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -6018,6 +6051,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -6026,78 +6131,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -6127,58 +6160,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="104"/>
+      <c r="N1" s="106"/>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="106">
+      <c r="P1" s="108">
         <v>46055</v>
       </c>
-      <c r="Q1" s="106"/>
+      <c r="Q1" s="108"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
       <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="1:17" ht="17.5" customHeight="1">
       <c r="A3" s="24"/>
@@ -6203,28 +6236,28 @@
       <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
       <c r="I4" s="22"/>
       <c r="J4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="97"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="112"/>
     </row>
     <row r="5" spans="1:17" ht="27" customHeight="1">
       <c r="A5" s="29"/>
@@ -6606,14 +6639,14 @@
     <row r="43" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="K4:Q4"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:K2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="K4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -6646,23 +6679,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6677,17 +6710,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6735,71 +6768,71 @@
     </row>
     <row r="5" spans="1:15" ht="16.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
       <c r="N5" s="44"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="16.75" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
       <c r="N6" s="44"/>
       <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" ht="16.75" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15" ht="16.75" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
     </row>
@@ -6824,37 +6857,37 @@
     </row>
     <row r="10" spans="1:15" ht="16.75" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
       <c r="N10" s="5"/>
       <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:15" ht="16.75" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
       <c r="N11" s="5"/>
       <c r="O11" s="27"/>
     </row>
@@ -7311,23 +7344,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7342,17 +7375,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7417,10 +7450,10 @@
     </row>
     <row r="6" spans="1:15" ht="24.5" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="60" t="s">
         <v>36</v>
       </c>
@@ -7438,10 +7471,10 @@
     </row>
     <row r="7" spans="1:15" ht="24.5" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="118"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="56" t="s">
         <v>147</v>
       </c>
@@ -7459,10 +7492,10 @@
     </row>
     <row r="8" spans="1:15" ht="24.5" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="56" t="s">
         <v>148</v>
       </c>
@@ -7953,10 +7986,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19752366-E070-44A9-892B-909F3CB4387B}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B4:O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -7974,23 +8007,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8000,23 +8033,23 @@
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="119">
+      <c r="O1" s="124">
         <v>46056</v>
       </c>
-      <c r="P1" s="120"/>
+      <c r="P1" s="125"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
@@ -8024,8 +8057,8 @@
       <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="122"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:16" ht="16.75" customHeight="1">
       <c r="A3" s="47"/>
@@ -8082,16 +8115,16 @@
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="125"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="60" t="s">
         <v>42</v>
       </c>
@@ -8107,10 +8140,10 @@
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="118"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="56" t="s">
         <v>156</v>
       </c>
@@ -8132,10 +8165,10 @@
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="56" t="s">
         <v>157</v>
       </c>
@@ -8157,10 +8190,10 @@
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="118"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="56" t="s">
         <v>158</v>
       </c>
@@ -8182,10 +8215,10 @@
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="118"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="56" t="s">
         <v>159</v>
       </c>
@@ -8207,10 +8240,10 @@
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="56" t="s">
         <v>160</v>
       </c>
@@ -8232,10 +8265,10 @@
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="118"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="56" t="s">
         <v>161</v>
       </c>
@@ -8257,10 +8290,10 @@
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1">
       <c r="A13" s="27"/>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="118"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="56" t="s">
         <v>181</v>
       </c>
@@ -8282,10 +8315,10 @@
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1">
       <c r="A14" s="27"/>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="118"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="56" t="s">
         <v>162</v>
       </c>
@@ -8307,10 +8340,10 @@
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1">
       <c r="A15" s="27"/>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="118"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="56" t="s">
         <v>185</v>
       </c>
@@ -8332,10 +8365,10 @@
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1">
       <c r="A16" s="27"/>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="56" t="s">
         <v>186</v>
       </c>
@@ -8357,10 +8390,10 @@
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1">
       <c r="A17" s="27"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="118"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="56" t="s">
         <v>163</v>
       </c>
@@ -8426,7 +8459,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
-      <c r="I20" s="126"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
       <c r="L20" s="52"/>
@@ -8566,7 +8599,7 @@
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
-      <c r="I28" s="126"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -8611,7 +8644,7 @@
     </row>
     <row r="31" spans="1:15" ht="19.75" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="79" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="5"/>
@@ -8629,7 +8662,7 @@
     </row>
     <row r="32" spans="1:15" ht="18.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="79" t="s">
         <v>195</v>
       </c>
       <c r="C32" s="5"/>
@@ -8647,7 +8680,7 @@
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="128"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -8672,7 +8705,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="126"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -8686,13 +8719,13 @@
       <c r="I35"/>
     </row>
     <row r="36" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="79" t="s">
         <v>198</v>
       </c>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B37" s="128"/>
+      <c r="B37" s="79"/>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:14" ht="18.75" customHeight="1">
@@ -8720,162 +8753,174 @@
       <c r="I41"/>
     </row>
     <row r="42" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B42" s="17"/>
-      <c r="I42" s="126"/>
+      <c r="B42" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I42"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="17"/>
+      <c r="I43" s="77"/>
+    </row>
+    <row r="44" spans="1:14" ht="18.75" customHeight="1">
+      <c r="B44" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B44" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="I44"/>
     </row>
     <row r="45" spans="1:14" ht="18.75" customHeight="1">
       <c r="B45" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:14" ht="18.75" customHeight="1">
+      <c r="B46" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B46" s="17"/>
       <c r="I46"/>
     </row>
     <row r="47" spans="1:14" ht="18.75" customHeight="1">
       <c r="B47" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:14" ht="18.75" customHeight="1">
+      <c r="B48" s="17"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B49" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B48" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" s="126"/>
-    </row>
-    <row r="49" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B49" s="17"/>
       <c r="I49"/>
     </row>
     <row r="50" spans="2:9" ht="18.75" customHeight="1">
       <c r="B50" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="77"/>
+    </row>
+    <row r="51" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B51" s="17"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B52" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B51" s="17" t="s">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B53" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B52" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="I52" s="127"/>
-    </row>
-    <row r="53" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B53" s="17"/>
       <c r="I53"/>
     </row>
     <row r="54" spans="2:9" ht="18.75" customHeight="1">
       <c r="B54" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="78"/>
+    </row>
+    <row r="55" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B55" s="17"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B56" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B55" s="17" t="s">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B57" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B56" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="I56" s="126"/>
-    </row>
-    <row r="57" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B57" s="17"/>
       <c r="I57"/>
     </row>
     <row r="58" spans="2:9" ht="18.75" customHeight="1">
       <c r="B58" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="I58"/>
+        <v>221</v>
+      </c>
+      <c r="I58" s="77"/>
     </row>
     <row r="59" spans="2:9" ht="18.75" customHeight="1">
       <c r="B59" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="I59"/>
+        <v>237</v>
+      </c>
+      <c r="I59" s="77"/>
     </row>
     <row r="60" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B60" s="17" t="s">
-        <v>215</v>
-      </c>
+      <c r="B60" s="17"/>
       <c r="I60"/>
     </row>
     <row r="61" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B61" s="17"/>
+      <c r="B61" s="22" t="s">
+        <v>211</v>
+      </c>
       <c r="I61"/>
     </row>
     <row r="62" spans="2:9" ht="18.75" customHeight="1">
       <c r="B62" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="I62" s="126"/>
+        <v>220</v>
+      </c>
+      <c r="I62"/>
     </row>
     <row r="63" spans="2:9" ht="18.75" customHeight="1">
       <c r="B63" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I63"/>
     </row>
     <row r="64" spans="2:9" ht="18.75" customHeight="1">
       <c r="B64" s="17" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="I64"/>
     </row>
     <row r="65" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B65" s="17"/>
+      <c r="B65" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="I65"/>
     </row>
     <row r="66" spans="2:9" ht="18.75" customHeight="1">
       <c r="B66" s="17"/>
-      <c r="I66" s="126"/>
+      <c r="I66"/>
     </row>
     <row r="67" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B67" s="17"/>
-      <c r="I67"/>
+      <c r="B67" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" s="77"/>
     </row>
     <row r="68" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B68" s="17"/>
+      <c r="B68" s="17" t="s">
+        <v>213</v>
+      </c>
       <c r="I68"/>
     </row>
     <row r="69" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B69" s="17"/>
+      <c r="B69" s="17" t="s">
+        <v>217</v>
+      </c>
       <c r="I69"/>
     </row>
     <row r="70" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B70" s="17"/>
+      <c r="B70" s="17" t="s">
+        <v>239</v>
+      </c>
       <c r="I70"/>
     </row>
     <row r="71" spans="2:9" ht="18.75" customHeight="1">
       <c r="B71" s="17"/>
-      <c r="I71"/>
+      <c r="I71" s="77"/>
     </row>
     <row r="72" spans="2:9" ht="18.75" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="I72" s="126"/>
+      <c r="I72"/>
     </row>
     <row r="73" spans="2:9" ht="18.75" customHeight="1">
       <c r="B73" s="17"/>
@@ -8895,11 +8940,11 @@
     </row>
     <row r="77" spans="2:9" ht="18.75" customHeight="1">
       <c r="B77" s="17"/>
-      <c r="I77"/>
+      <c r="I77" s="77"/>
     </row>
     <row r="78" spans="2:9" ht="18.75" customHeight="1">
       <c r="B78" s="17"/>
-      <c r="I78" s="126"/>
+      <c r="I78"/>
     </row>
     <row r="79" spans="2:9" ht="18.75" customHeight="1">
       <c r="B79" s="17"/>
@@ -8919,11 +8964,11 @@
     </row>
     <row r="83" spans="2:9" ht="18.75" customHeight="1">
       <c r="B83" s="17"/>
-      <c r="I83"/>
+      <c r="I83" s="77"/>
     </row>
     <row r="84" spans="2:9" ht="18.75" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="I84" s="126"/>
+      <c r="I84"/>
     </row>
     <row r="85" spans="2:9" ht="18.75" customHeight="1">
       <c r="B85" s="17"/>
@@ -8941,19 +8986,28 @@
       <c r="B88" s="17"/>
       <c r="I88"/>
     </row>
+    <row r="89" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B89" s="17"/>
+      <c r="I89" s="77"/>
+    </row>
+    <row r="90" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B90" s="17"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B91" s="17"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B92" s="17"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B93" s="17"/>
+      <c r="I93"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
@@ -8962,6 +9016,17 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -8975,8 +9040,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -8994,23 +9059,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9025,17 +9090,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9307,7 +9372,7 @@
     </row>
     <row r="17" spans="1:15" ht="16.25" customHeight="1">
       <c r="A17" s="27"/>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="80" t="s">
         <v>228</v>
       </c>
       <c r="C17" s="52"/>
@@ -9362,7 +9427,7 @@
     </row>
     <row r="20" spans="1:15" ht="16.25" customHeight="1">
       <c r="A20" s="27"/>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="80" t="s">
         <v>233</v>
       </c>
       <c r="C20" s="52"/>
@@ -9381,7 +9446,7 @@
     </row>
     <row r="21" spans="1:15" ht="16.25" customHeight="1">
       <c r="A21" s="27"/>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="80" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="52"/>
@@ -9709,23 +9774,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9740,17 +9805,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10349,23 +10414,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10380,17 +10445,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
